--- a/RUDN/Importance/Varible_muatal_class_in_Western Asia.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_Western Asia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="507">
   <si>
     <t>Country_code</t>
   </si>
@@ -55,21 +55,24 @@
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 15, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
     <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
     <t>Survival to age 65, female (% of cohort)</t>
   </si>
   <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
     <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
@@ -79,15 +82,12 @@
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
-    <t>Number of neonatal deaths</t>
+    <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
@@ -103,12 +103,12 @@
     <t>Age population, age 05, male, interpolated</t>
   </si>
   <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
     <t>Male population 10-14</t>
   </si>
   <si>
@@ -127,6 +127,9 @@
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
     <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
     <t>Age population, age 11, male, interpolated</t>
   </si>
   <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
     <t>Male population 05-09</t>
   </si>
   <si>
@@ -145,16 +151,16 @@
     <t>Population ages 00-14, total</t>
   </si>
   <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Hospital beds (per 1,000 people)</t>
   </si>
   <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
   </si>
   <si>
     <t>Age population, age 11, female, interpolated</t>
@@ -169,9 +175,6 @@
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
     <t>Population ages 0-14, female</t>
   </si>
   <si>
@@ -181,114 +184,111 @@
     <t>Female population 10-14</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000)</t>
   </si>
   <si>
-    <t>Age population, age 03, female, interpolated</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+    <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
     <t>PPP conversion factor, private consumption (LCU per international $)</t>
   </si>
   <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
   </si>
   <si>
     <t>People using safely managed sanitation services (% of population)</t>
   </si>
   <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>Age population, age 18, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
     <t>Improved sanitation facilities (% of population with access)</t>
   </si>
   <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Survival to age 65, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Population, female (% of total)</t>
   </si>
   <si>
@@ -304,6 +304,9 @@
     <t>Age population, age 02, male, interpolated</t>
   </si>
   <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
@@ -313,9 +316,6 @@
     <t>Age population, age 01, female, interpolated</t>
   </si>
   <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
     <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
@@ -343,1192 +343,1198 @@
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
     <t>Secondary education, teachers (% female)</t>
   </si>
   <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
     <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>GNI per capita, PPP (current international $)</t>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Male population 40-44</t>
   </si>
   <si>
     <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male (% of total)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
   </si>
   <si>
     <t>Physicians (per 1,000 people)</t>
   </si>
   <si>
-    <t>Health expenditure per capita (current US$)</t>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
   </si>
   <si>
     <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
   </si>
   <si>
     <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male (% of total)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Labor force, total</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, female (% of total)</t>
-  </si>
-  <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
     <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
   </si>
   <si>
     <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
+    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Fertility rate, total (births per woman)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Female population 60-64</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Sex ratio at birth (male births per female births)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population, male</t>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Male population 60-64</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
   </si>
   <si>
     <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Female population 60-64</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Number of people who are undernourished</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Male population 60-64</t>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Ratio of young literate females to males (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
   </si>
   <si>
     <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Number of people who are undernourished</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth total (% of people ages 15-24)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
   </si>
   <si>
     <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
   </si>
   <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (%, all forms)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+    <t>Literacy rate, youth male (% of males ages 15-24)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Literacy rate, youth female (% of females ages 15-24)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Self-employed, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>Prevalence of wasting, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
   </si>
   <si>
     <t>Prevalence of severe wasting, weight for height (% of children under 5)</t>
   </si>
   <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Agricultural support estimate (% of GDP)</t>
+    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Informal employment, female (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
   </si>
   <si>
     <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
   </si>
   <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Malnutrition prevalence, weight for age (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Prevalence of severe wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Rural poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (constant 2015 US$)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
   </si>
   <si>
     <t>Malnutrition prevalence, height for age, male (% of children under 5)</t>
   </si>
   <si>
-    <t>Prevalence of wasting (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of underweight, weight for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
+    <t>Informal employment, male (% of total non-agricultural employment)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
   </si>
   <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>Prevalence of severe wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of children under 5)</t>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Region_code</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
   </si>
   <si>
     <t>Income share held by lowest 20%</t>
   </si>
   <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Prevalence of wasting, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, male (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Self-employed, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Prevalence of stunting, height for age, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, weight for height, female (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
-    <t>Children (0-14) living with HIV</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Informal employment, male (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Self-employed, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (constant 2015 US$)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Informal employment, female (% of total non-agricultural employment)</t>
-  </si>
-  <si>
-    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
-  </si>
-  <si>
-    <t>Reion_sub_code</t>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
   <si>
     <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1892,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B506"/>
+  <dimension ref="A1:B508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2006,7 +2012,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6614934335836093</v>
+        <v>0.6599986715205557</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2014,7 +2020,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6599986715205557</v>
+        <v>0.6584842270974574</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2022,7 +2028,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6584842270974574</v>
+        <v>0.6582883053784812</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2046,7 +2052,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6537055460716417</v>
+        <v>0.6551982324298109</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2054,7 +2060,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6504604656991948</v>
+        <v>0.6537055460716417</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2062,7 +2068,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6491729262722932</v>
+        <v>0.6504604656991948</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2070,7 +2076,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6481732782173568</v>
+        <v>0.6491729262722932</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2078,7 +2084,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.647163478020881</v>
+        <v>0.6486469561572825</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2086,7 +2092,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6470443920547184</v>
+        <v>0.647163478020881</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2198,7 +2204,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.6319650783788267</v>
+        <v>0.6327670623177926</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2206,7 +2212,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.6316333402706089</v>
+        <v>0.6319650783788267</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2214,7 +2220,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.6314514174925323</v>
+        <v>0.6316333402706089</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2222,7 +2228,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.6304842789715508</v>
+        <v>0.6314514174925323</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2230,7 +2236,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.6300867745625616</v>
+        <v>0.6310203247783457</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2238,7 +2244,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.6297116207379256</v>
+        <v>0.6304842789715508</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2246,7 +2252,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.6286800569086719</v>
+        <v>0.6300867745625616</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2254,7 +2260,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.6268001526249212</v>
+        <v>0.6297116207379256</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2262,7 +2268,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.6264300032409087</v>
+        <v>0.6268001526249212</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2270,7 +2276,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.6208786295850957</v>
+        <v>0.6233695910046286</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2278,7 +2284,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.6197030368287477</v>
+        <v>0.620671292169138</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2286,7 +2292,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.6162989484338131</v>
+        <v>0.6200324144869911</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2294,7 +2300,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.6157482304552107</v>
+        <v>0.6197030368287477</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2302,7 +2308,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.614501066198555</v>
+        <v>0.6162989484338131</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2310,7 +2316,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.613987924788655</v>
+        <v>0.6157482304552107</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2318,7 +2324,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.6116129240036177</v>
+        <v>0.614501066198555</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2326,7 +2332,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.6112071140939888</v>
+        <v>0.6116129240036177</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2334,7 +2340,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.610460067135373</v>
+        <v>0.6112071140939888</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2342,7 +2348,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.6074357064210425</v>
+        <v>0.610460067135373</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2350,7 +2356,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.6070890349118612</v>
+        <v>0.6100374110318234</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2358,7 +2364,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.6065951124638456</v>
+        <v>0.6070890349118612</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2366,7 +2372,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.6020366077745081</v>
+        <v>0.6009092104350684</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2374,7 +2380,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.6009092104350684</v>
+        <v>0.5987384507050464</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2382,7 +2388,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.5987384507050464</v>
+        <v>0.5979637112884799</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2390,7 +2396,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.5979637112884799</v>
+        <v>0.5976954550333156</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2398,7 +2404,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.5976954550333156</v>
+        <v>0.5949329679933137</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2406,7 +2412,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.5956187657704948</v>
+        <v>0.5948104227945405</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2414,7 +2420,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.5952951725622491</v>
+        <v>0.5947204401365547</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2422,7 +2428,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.5951074929875504</v>
+        <v>0.5943177165321267</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2430,7 +2436,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.5947204401365547</v>
+        <v>0.5912265432382455</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2438,7 +2444,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.5941316859420316</v>
+        <v>0.5906879303955332</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -2446,7 +2452,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.5917158792593982</v>
+        <v>0.5894315763953442</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -2454,7 +2460,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.5912265432382455</v>
+        <v>0.5891853005990861</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2462,7 +2468,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.5906879303955332</v>
+        <v>0.5844323593715799</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -2470,7 +2476,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.5894315763953442</v>
+        <v>0.5815112668312281</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -2478,7 +2484,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.5891853005990861</v>
+        <v>0.5809972203259484</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2486,7 +2492,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.5844323593715799</v>
+        <v>0.5794703389600211</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2494,7 +2500,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.5815112668312281</v>
+        <v>0.5775517786318163</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -2502,7 +2508,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.5794703389600211</v>
+        <v>0.5768439554038314</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -2510,7 +2516,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.5768439554038314</v>
+        <v>0.576538965470949</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2518,7 +2524,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.576538965470949</v>
+        <v>0.5714934186283207</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -2526,7 +2532,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.5763206331228015</v>
+        <v>0.5697465657608514</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -2534,7 +2540,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.5728488916247352</v>
+        <v>0.567930172059095</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -2542,7 +2548,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.5716157021982609</v>
+        <v>0.5664655624620256</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2550,7 +2556,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.5714934186283207</v>
+        <v>0.5643334011659604</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -2558,7 +2564,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.5697465657608514</v>
+        <v>0.5640833340547746</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -2566,7 +2572,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.5695056798846025</v>
+        <v>0.562680702511263</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -2574,7 +2580,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.5664655624620256</v>
+        <v>0.5618150751928273</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -2582,7 +2588,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.5647787877338255</v>
+        <v>0.5602448052912266</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -2590,7 +2596,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.5637480637286956</v>
+        <v>0.5590785462557051</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -2598,7 +2604,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.562680702511263</v>
+        <v>0.5584778075814483</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -2606,7 +2612,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.5618150751928273</v>
+        <v>0.5566667417763096</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2614,7 +2620,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.5590785462557051</v>
+        <v>0.5535424741388775</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -2622,7 +2628,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.5566667417763096</v>
+        <v>0.5430201662285845</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -2670,7 +2676,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.5342053116772028</v>
+        <v>0.535593441085171</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -2678,7 +2684,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.5315320747812857</v>
+        <v>0.5342053116772028</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -2686,7 +2692,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.5309147931463361</v>
+        <v>0.5315320747812857</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -2694,7 +2700,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.5286984345146464</v>
+        <v>0.5309147931463361</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -2726,7 +2732,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.5228217811672227</v>
+        <v>0.5216198580902995</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -2774,7 +2780,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.5048403066148481</v>
+        <v>0.5036848192291383</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2782,7 +2788,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.5036848192291383</v>
+        <v>0.5031139224459282</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2790,7 +2796,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.5031139224459282</v>
+        <v>0.4994063624550031</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2798,7 +2804,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.4994063624550031</v>
+        <v>0.4953098147042949</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2806,7 +2812,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.4953098147042949</v>
+        <v>0.4911485796994473</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2814,7 +2820,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.4911485796994473</v>
+        <v>0.4907447626930506</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2822,7 +2828,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.4907447626930506</v>
+        <v>0.4839862028806774</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2830,7 +2836,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.4839862028806774</v>
+        <v>0.4836887170536746</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2838,7 +2844,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.4836887170536746</v>
+        <v>0.4834678577760365</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2846,7 +2852,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.4834678577760365</v>
+        <v>0.4827984172747761</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2862,7 +2868,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.4713263360579303</v>
+        <v>0.4821586824402078</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2870,7 +2876,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.4694372879121047</v>
+        <v>0.4784568664828384</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2878,7 +2884,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.4692293049557397</v>
+        <v>0.4718905781236087</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2886,7 +2892,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.4690055161982423</v>
+        <v>0.4698710646616713</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2894,7 +2900,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.4661042826478643</v>
+        <v>0.4690055161982423</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2902,7 +2908,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.4657312013023567</v>
+        <v>0.4661042826478643</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2910,7 +2916,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.463983278636416</v>
+        <v>0.4647473439451548</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2918,7 +2924,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.4637139330734394</v>
+        <v>0.463983278636416</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2926,7 +2932,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.4630199304308455</v>
+        <v>0.4634849953445017</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2958,7 +2964,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.4592078208984987</v>
+        <v>0.4608319332134141</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2966,7 +2972,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.4560960706776149</v>
+        <v>0.4592078208984987</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2982,7 +2988,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.4514748469142844</v>
+        <v>0.4504839409503856</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2990,7 +2996,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.4507542695454101</v>
+        <v>0.4475170427841348</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2998,7 +3004,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.4504839409503856</v>
+        <v>0.4472399223407673</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -3006,7 +3012,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.4504634087770587</v>
+        <v>0.4457425639395116</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -3014,7 +3020,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.4489522158107497</v>
+        <v>0.4443390189275733</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -3022,7 +3028,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.4475170427841348</v>
+        <v>0.4384990716273376</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -3030,7 +3036,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.4467281791819651</v>
+        <v>0.4368520386819168</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -3038,7 +3044,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.4446555626283488</v>
+        <v>0.432533744793471</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -3046,7 +3052,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.4443390189275733</v>
+        <v>0.4321978352299201</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -3054,7 +3060,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.4384990716273376</v>
+        <v>0.4312208152668491</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -3062,7 +3068,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.43688559114482</v>
+        <v>0.4296300426022039</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -3070,7 +3076,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.4359845518966126</v>
+        <v>0.4286117504989277</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -3078,7 +3084,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.4357947183738844</v>
+        <v>0.4213781325777732</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -3086,7 +3092,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.432533744793471</v>
+        <v>0.4179465106267501</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -3094,7 +3100,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.4321978352299201</v>
+        <v>0.4173111413071586</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -3102,7 +3108,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.4311076354436263</v>
+        <v>0.4172884506708343</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -3110,7 +3116,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.4299026301844644</v>
+        <v>0.4171356696304058</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -3118,7 +3124,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.4286117504989277</v>
+        <v>0.4164629317497019</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -3126,7 +3132,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.418065495852266</v>
+        <v>0.4153073790354425</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -3134,7 +3140,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.4179465106267501</v>
+        <v>0.4152423624960886</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -3142,7 +3148,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.4171356696304058</v>
+        <v>0.4148365893319206</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -3150,7 +3156,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.4153073790354425</v>
+        <v>0.4141100749371696</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -3158,7 +3164,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.4148365893319206</v>
+        <v>0.4117737834890323</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3166,7 +3172,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.4144247603827547</v>
+        <v>0.4090439643709558</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3174,7 +3180,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.4141100749371696</v>
+        <v>0.4073371132987249</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3182,7 +3188,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.4111515692807028</v>
+        <v>0.4069402148796528</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3190,7 +3196,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.4101842440837244</v>
+        <v>0.4049701304996123</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3198,7 +3204,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.4094422956471737</v>
+        <v>0.4047060794604314</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3206,7 +3212,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.4073371132987249</v>
+        <v>0.4046638160363858</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3214,7 +3220,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.4069515503808279</v>
+        <v>0.4042784694813555</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3222,7 +3228,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.4047060794604314</v>
+        <v>0.4037793680267896</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3230,7 +3236,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.4046638160363858</v>
+        <v>0.401076062111376</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3238,7 +3244,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.4039975555732471</v>
+        <v>0.3991908688377983</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3246,7 +3252,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.4037996946061442</v>
+        <v>0.3989109802367341</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3254,7 +3260,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.4037793680267896</v>
+        <v>0.398176081795675</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3262,7 +3268,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.401076062111376</v>
+        <v>0.3973351280346265</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -3270,7 +3276,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.398176081795675</v>
+        <v>0.3958293898843102</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -3278,7 +3284,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.397143593490493</v>
+        <v>0.3951841196747157</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -3286,7 +3292,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.396474721768145</v>
+        <v>0.3945748408966019</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -3294,7 +3300,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.396415386896696</v>
+        <v>0.3936646959990469</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -3302,7 +3308,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.3936646959990469</v>
+        <v>0.3898050410716933</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -3310,7 +3316,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.3898050410716933</v>
+        <v>0.3883857773637969</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -3318,7 +3324,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.3895031740471779</v>
+        <v>0.3882210819905996</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3326,7 +3332,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.3872125414643548</v>
+        <v>0.3877494005918545</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3334,7 +3340,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.3860573677501351</v>
+        <v>0.3872125414643548</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3342,7 +3348,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.3848812988916019</v>
+        <v>0.3858623408435655</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3350,7 +3356,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.383891623744343</v>
+        <v>0.385741992684717</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3358,7 +3364,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.3827405356661897</v>
+        <v>0.3848812988916019</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -3366,7 +3372,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.37963983963841</v>
+        <v>0.383891623744343</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -3374,7 +3380,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.3788392088240802</v>
+        <v>0.3827405356661897</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -3382,7 +3388,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.3778109479980505</v>
+        <v>0.3824370453259083</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3390,7 +3396,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.3774880022835885</v>
+        <v>0.3790512189376074</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3398,7 +3404,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.3746826421340288</v>
+        <v>0.376082708199498</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -3406,7 +3412,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.3742401652903904</v>
+        <v>0.3746826421340288</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -3414,7 +3420,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.3733365785107079</v>
+        <v>0.3739571568248004</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3422,7 +3428,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.3733280668108721</v>
+        <v>0.3723652548407546</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3430,7 +3436,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.3728570977347254</v>
+        <v>0.372260851339804</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3438,7 +3444,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.3705572186620991</v>
+        <v>0.3719360804553287</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3446,7 +3452,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.3700765457395487</v>
+        <v>0.371590216318894</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3454,7 +3460,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.3696996171316254</v>
+        <v>0.3663588996225298</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3462,7 +3468,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.3663588996225298</v>
+        <v>0.3655010710705369</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3470,7 +3476,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.3656130530312474</v>
+        <v>0.3643365709776998</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3478,7 +3484,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.3647815742277325</v>
+        <v>0.3639354725400754</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3486,7 +3492,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.3638452932587357</v>
+        <v>0.3637672611462885</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3494,7 +3500,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.3632828960230197</v>
+        <v>0.3619273344130858</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3502,7 +3508,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.3617808560173301</v>
+        <v>0.3609795739660477</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3510,7 +3516,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.3567190010797525</v>
+        <v>0.3587352616510551</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3518,7 +3524,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.3565914521551314</v>
+        <v>0.3569744965086983</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3542,7 +3548,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.3563848711151181</v>
+        <v>0.3557296103940808</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3566,7 +3572,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.3549878229674259</v>
+        <v>0.3537438538234672</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -3574,7 +3580,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.3548329533749028</v>
+        <v>0.3528785596386743</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3582,7 +3588,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.3537438538234672</v>
+        <v>0.3527645310139771</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3590,7 +3596,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.3533916359658533</v>
+        <v>0.3522765189174377</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3598,7 +3604,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.3532799407588292</v>
+        <v>0.3511013115534052</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3606,7 +3612,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.3528785596386743</v>
+        <v>0.3505980462904321</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3614,7 +3620,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.3527645310139771</v>
+        <v>0.3498768673769552</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3622,7 +3628,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.3510773771433104</v>
+        <v>0.3484617074064895</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3630,7 +3636,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.3508195068597539</v>
+        <v>0.3473371351798664</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3638,7 +3644,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.3505980462904321</v>
+        <v>0.3460238255508661</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3646,7 +3652,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.3505094919639125</v>
+        <v>0.3446191105511436</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3654,7 +3660,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.3502775084025962</v>
+        <v>0.3444135089136509</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3662,7 +3668,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.3473371351798664</v>
+        <v>0.3443005517580766</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3670,7 +3676,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.3469413401653523</v>
+        <v>0.3438178284998614</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3678,7 +3684,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.3446191105511436</v>
+        <v>0.3432719959884747</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3686,7 +3692,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.3444135089136509</v>
+        <v>0.3430222618782672</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3694,7 +3700,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.3443005517580766</v>
+        <v>0.3425189450813331</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3702,7 +3708,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.3438178284998614</v>
+        <v>0.3420213872211579</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3710,7 +3716,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.3432719959884747</v>
+        <v>0.3410899294593288</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3718,7 +3724,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.3432099380352984</v>
+        <v>0.3408209668869002</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3726,7 +3732,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.3425189450813331</v>
+        <v>0.340662446645388</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3734,7 +3740,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.3423514872772158</v>
+        <v>0.3401758034795292</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3742,7 +3748,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.3420213872211579</v>
+        <v>0.3400454812937366</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3750,7 +3756,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.3410899294593288</v>
+        <v>0.3380719000437438</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3758,7 +3764,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.3400454812937366</v>
+        <v>0.3362744657274539</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3766,7 +3772,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.3380719000437438</v>
+        <v>0.3358115462702418</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3774,7 +3780,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.3362744657274539</v>
+        <v>0.3353586995859572</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3782,7 +3788,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.3353586995859572</v>
+        <v>0.3353515327098122</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3790,7 +3796,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.3337457323955462</v>
+        <v>0.3340631666684082</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3798,7 +3804,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.3334312630546328</v>
+        <v>0.3337327881429502</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3806,7 +3812,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.3333210761644139</v>
+        <v>0.3329593573757894</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3814,7 +3820,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.3332492461472571</v>
+        <v>0.3326069304210542</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3822,7 +3828,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.3322687526428338</v>
+        <v>0.3324947486713457</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3838,7 +3844,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.3315796872256298</v>
+        <v>0.3322687526428338</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3846,7 +3852,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.3310116130361125</v>
+        <v>0.3307111322668816</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3854,7 +3860,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.3295614456367979</v>
+        <v>0.3281399974893036</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3862,7 +3868,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.3281426953857192</v>
+        <v>0.3280870555802124</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3870,7 +3876,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.3272330597335593</v>
+        <v>0.3270989867807799</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3878,7 +3884,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.3270989867807799</v>
+        <v>0.3268991102532435</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3886,7 +3892,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.3259902623810884</v>
+        <v>0.3265726753659084</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3894,7 +3900,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.3257884285285659</v>
+        <v>0.3265048205244439</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3902,7 +3908,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.3224774066070697</v>
+        <v>0.3257884285285659</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3910,7 +3916,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.3208085628812409</v>
+        <v>0.3244679782473372</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3918,7 +3924,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.3200704978199098</v>
+        <v>0.3201081394231473</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3926,7 +3932,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.3185188571608499</v>
+        <v>0.3193326246063495</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3934,7 +3940,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.3174595888030125</v>
+        <v>0.3186642597977223</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3942,7 +3948,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.3173434998590059</v>
+        <v>0.3160696434373083</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3950,7 +3956,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.3168684974792946</v>
+        <v>0.314434841877721</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3958,7 +3964,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.3160696434373083</v>
+        <v>0.3139148705513719</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3966,7 +3972,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.3154403512071666</v>
+        <v>0.3126282792762176</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3974,7 +3980,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.3153631801770493</v>
+        <v>0.3123097544239455</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3982,7 +3988,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.3144388187176324</v>
+        <v>0.3122165919113382</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3990,7 +3996,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.3139790851677629</v>
+        <v>0.3100251691499818</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3998,7 +4004,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.3135116775008686</v>
+        <v>0.3100110777435454</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -4006,7 +4012,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.3094023819514564</v>
+        <v>0.3092100365492196</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -4014,7 +4020,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.3075882962102952</v>
+        <v>0.308632342608524</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -4022,7 +4028,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.3068132495159823</v>
+        <v>0.3075882962102952</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -4030,7 +4036,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.3067247040850734</v>
+        <v>0.3060287476893775</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -4038,7 +4044,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.3055472258028273</v>
+        <v>0.304592751121419</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -4054,7 +4060,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.3036869677998755</v>
+        <v>0.303218517595226</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -4062,7 +4068,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.303668605237571</v>
+        <v>0.3028423709223067</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -4070,7 +4076,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.3035386101063877</v>
+        <v>0.3025679186885957</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -4078,7 +4084,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.3025679186885957</v>
+        <v>0.3021029137753057</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -4086,7 +4092,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.3010730233042742</v>
+        <v>0.3019780295621248</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -4094,7 +4100,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.3007836271277295</v>
+        <v>0.3015400414798808</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -4102,7 +4108,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.3001351866716344</v>
+        <v>0.3008309173745007</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -4110,7 +4116,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.2984757047978266</v>
+        <v>0.3007836271277295</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -4118,7 +4124,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.2970214419666091</v>
+        <v>0.2995966181745477</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -4126,7 +4132,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.2928338158499533</v>
+        <v>0.2981675531840935</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -4134,7 +4140,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.2926801784675939</v>
+        <v>0.2975413243624783</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -4142,7 +4148,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.292011662589799</v>
+        <v>0.2974938898022432</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -4150,7 +4156,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.2918444869315859</v>
+        <v>0.2955038575679025</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -4158,7 +4164,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.2918147894935157</v>
+        <v>0.2954061743872647</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4166,7 +4172,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.2911831566360863</v>
+        <v>0.2918444869315859</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4174,7 +4180,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.291083883570769</v>
+        <v>0.291141225895543</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4182,7 +4188,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.2894172422349803</v>
+        <v>0.2907854133335628</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4198,7 +4204,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.2885039345970932</v>
+        <v>0.2891786085275563</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4206,7 +4212,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.2883970798262592</v>
+        <v>0.286350594974754</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4214,7 +4220,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.2883652580338412</v>
+        <v>0.2858189034842531</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4222,7 +4228,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.2882541694584826</v>
+        <v>0.2855665512003556</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4230,7 +4236,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.2869354151593846</v>
+        <v>0.2848078371831144</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4238,7 +4244,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.286897286179369</v>
+        <v>0.2847571137580573</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4246,7 +4252,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.2858189034842531</v>
+        <v>0.2835987424600301</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4254,7 +4260,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.2851628095047063</v>
+        <v>0.2834548147227964</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4262,7 +4268,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.2847571137580573</v>
+        <v>0.2826861980968713</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4270,7 +4276,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.2846756494516651</v>
+        <v>0.2795288824201516</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4278,7 +4284,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.284164307610612</v>
+        <v>0.278535542317631</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4286,7 +4292,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.2841163102166235</v>
+        <v>0.2781388561175826</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4294,7 +4300,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.2836165369663539</v>
+        <v>0.2740398729164675</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4302,7 +4308,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.2826861980968713</v>
+        <v>0.2738745921080508</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4310,7 +4316,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.2810960800052105</v>
+        <v>0.273134360212735</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4318,7 +4324,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.2805392213297291</v>
+        <v>0.2727509954809499</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4326,7 +4332,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.2802471556028012</v>
+        <v>0.2713377304238929</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4334,7 +4340,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.2795288824201516</v>
+        <v>0.2709809490030068</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4342,7 +4348,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.2746035882041198</v>
+        <v>0.2709809490030068</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4350,7 +4356,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.2743258424688149</v>
+        <v>0.2649776265487254</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4358,7 +4364,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.2730024442759944</v>
+        <v>0.264734665957014</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4366,7 +4372,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.2714707459542045</v>
+        <v>0.2646829197538654</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4374,7 +4380,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.2709809490030068</v>
+        <v>0.264493628399336</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4382,7 +4388,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.2709809490030068</v>
+        <v>0.263194322605695</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4390,7 +4396,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.2707989967422495</v>
+        <v>0.2628627968823771</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4398,7 +4404,7 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.2665737710470473</v>
+        <v>0.2628519421933722</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -4406,7 +4412,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.2647658484784632</v>
+        <v>0.2626410247891831</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4414,7 +4420,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.2630626639746456</v>
+        <v>0.2622926460009312</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4422,7 +4428,7 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.2628627968823771</v>
+        <v>0.2613030277703201</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -4430,7 +4436,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.2627598428307885</v>
+        <v>0.2598221336252673</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4438,7 +4444,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.2622926460009312</v>
+        <v>0.2580756539417595</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4446,7 +4452,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.2610111037967049</v>
+        <v>0.2577664179792154</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4454,7 +4460,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.2602560409009536</v>
+        <v>0.2568078619933898</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4462,7 +4468,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.2545552707176042</v>
+        <v>0.2564210724837668</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4470,7 +4476,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.253924359887717</v>
+        <v>0.2561995422665024</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4478,7 +4484,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.2531905108544212</v>
+        <v>0.2552464803640007</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4486,7 +4492,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.2529944140613742</v>
+        <v>0.2545552707176042</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4494,7 +4500,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.2521963176700908</v>
+        <v>0.2543828025450885</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4502,7 +4508,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.2506198553397168</v>
+        <v>0.2539852573861263</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4510,7 +4516,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.2496621924032976</v>
+        <v>0.2531794370312519</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4518,7 +4524,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.2495127633747107</v>
+        <v>0.2523907946674524</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4526,7 +4532,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.2487694823812245</v>
+        <v>0.2506198553397168</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4534,7 +4540,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.246337012590238</v>
+        <v>0.250062104573483</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4542,7 +4548,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.2436314663893522</v>
+        <v>0.246337012590238</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4550,7 +4556,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.2435065649973849</v>
+        <v>0.2453643172892523</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4558,7 +4564,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.2425904484369021</v>
+        <v>0.2447193522324973</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4566,7 +4572,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.2418241666953702</v>
+        <v>0.2446366306831305</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4574,7 +4580,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.2402812931071467</v>
+        <v>0.2438968916608673</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4582,7 +4588,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.2396152185753659</v>
+        <v>0.2437801437196083</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4590,7 +4596,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.2395067634920331</v>
+        <v>0.2435065649973849</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4598,7 +4604,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.2390311578475921</v>
+        <v>0.2429610751080598</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4606,7 +4612,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.2384733433066006</v>
+        <v>0.2427935787049222</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4614,7 +4620,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.2373068935486184</v>
+        <v>0.2421428680299975</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4622,7 +4628,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.2369669133460994</v>
+        <v>0.2418241666953702</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4630,7 +4636,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.2368209164756672</v>
+        <v>0.2411950648348458</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4638,7 +4644,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.2351173486185743</v>
+        <v>0.2397968573126672</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4646,7 +4652,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.2341031050964357</v>
+        <v>0.2375101211141399</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4654,7 +4660,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.234078962485055</v>
+        <v>0.2369669133460994</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4662,7 +4668,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.2332285029233498</v>
+        <v>0.2356081428337458</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4670,7 +4676,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.2331254630076305</v>
+        <v>0.2340997567741969</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4686,7 +4692,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.2312812197568226</v>
+        <v>0.2291759687391424</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4694,7 +4700,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.2305101902621745</v>
+        <v>0.2282897368544372</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4702,7 +4708,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.2285802566218671</v>
+        <v>0.227422923617834</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4710,7 +4716,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.2282156697641042</v>
+        <v>0.2270854277399961</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4718,7 +4724,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.2270854277399961</v>
+        <v>0.2269423707084968</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4726,7 +4732,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.2257752846488192</v>
+        <v>0.2262087684303826</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4734,7 +4740,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.2226341195473607</v>
+        <v>0.2241638576256473</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4742,7 +4748,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.2226180253588945</v>
+        <v>0.2226341195473607</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4758,7 +4764,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.2207006912381304</v>
+        <v>0.2213934606376322</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4766,7 +4772,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.2204648709365251</v>
+        <v>0.2195844766168868</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4774,7 +4780,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.2201574473692371</v>
+        <v>0.2184860560249293</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4782,7 +4788,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.2191663759773199</v>
+        <v>0.2181400653841812</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4790,7 +4796,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.2186887348097062</v>
+        <v>0.2179111146553123</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4798,7 +4804,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.2176660340405951</v>
+        <v>0.2163099654275271</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4806,7 +4812,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.2167605412894811</v>
+        <v>0.2160309446862505</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4814,7 +4820,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.2163099654275271</v>
+        <v>0.2135919948675997</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4822,7 +4828,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.2160309446862505</v>
+        <v>0.2124734223957301</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4830,7 +4836,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.2147767843091946</v>
+        <v>0.2100276141285566</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4838,7 +4844,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.2136170422279535</v>
+        <v>0.2089794165367469</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4846,7 +4852,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.2129739203195073</v>
+        <v>0.2067406119014574</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4854,7 +4860,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.2124734223957301</v>
+        <v>0.2061665510098347</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4862,7 +4868,7 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.2050761687036826</v>
+        <v>0.2037414735556704</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -4870,7 +4876,7 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.2048329489802048</v>
+        <v>0.203697385681832</v>
       </c>
     </row>
     <row r="374" spans="1:2">
@@ -4878,7 +4884,7 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.2044108978150074</v>
+        <v>0.2032377717259171</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -4886,7 +4892,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.203853004477383</v>
+        <v>0.2031953500148866</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4894,7 +4900,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.203697385681832</v>
+        <v>0.2031479691955558</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4902,7 +4908,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.203170330529904</v>
+        <v>0.2029269888756082</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4910,7 +4916,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.201898196523657</v>
+        <v>0.2002962539622091</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4918,7 +4924,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.1993160269524084</v>
+        <v>0.2000169180579634</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4926,7 +4932,7 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>0.1986854234862174</v>
+        <v>0.1993344992325721</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -4934,7 +4940,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.1970624295727559</v>
+        <v>0.1993160269524084</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4942,7 +4948,7 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>0.1955728916134123</v>
+        <v>0.1961035392241104</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -4950,7 +4956,7 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>0.1948357798334643</v>
+        <v>0.1956983869041391</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -4958,7 +4964,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.1944682018488328</v>
+        <v>0.1946981888480384</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4966,7 +4972,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.1941475542248734</v>
+        <v>0.1933544021886722</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4974,7 +4980,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.1932014267725808</v>
+        <v>0.1928162099742607</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4982,7 +4988,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.1913866828474746</v>
+        <v>0.1912970274876966</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4990,7 +4996,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.1892999215587938</v>
+        <v>0.1911694718139969</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4998,7 +5004,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.1890003719307607</v>
+        <v>0.1881058135371647</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -5006,7 +5012,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.1872839473623413</v>
+        <v>0.1875152534859232</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -5014,7 +5020,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.1866653189073968</v>
+        <v>0.1875016673709879</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -5022,7 +5028,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.1838445688608599</v>
+        <v>0.1872839473623413</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -5030,7 +5036,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.1827581421452966</v>
+        <v>0.1866653189073968</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -5038,7 +5044,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.1810953453786264</v>
+        <v>0.1862439643310896</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -5046,7 +5052,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.1807528581043427</v>
+        <v>0.1849345388827905</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -5054,7 +5060,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.1786413487935716</v>
+        <v>0.1815270092315711</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -5062,7 +5068,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.1770888185299058</v>
+        <v>0.1790876990687467</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -5070,7 +5076,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.1770795895870401</v>
+        <v>0.1780332375810005</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -5078,7 +5084,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.1766982022951076</v>
+        <v>0.1774276331861482</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -5086,7 +5092,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.176328845588279</v>
+        <v>0.1770795895870401</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -5094,7 +5100,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.1750554342175985</v>
+        <v>0.1759088971620653</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -5102,7 +5108,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.175022798361133</v>
+        <v>0.1729538288452865</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -5110,7 +5116,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.1737954821957632</v>
+        <v>0.1717698457956085</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -5118,7 +5124,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.1723353170123916</v>
+        <v>0.1699517595681539</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -5126,7 +5132,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.1705202496476128</v>
+        <v>0.1668292437525534</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -5134,7 +5140,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.1702472492745692</v>
+        <v>0.1653518361441564</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -5142,7 +5148,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.1688759084470079</v>
+        <v>0.1637704248270577</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -5150,7 +5156,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.1668292437525534</v>
+        <v>0.1587125119067252</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -5158,7 +5164,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.1662750885115432</v>
+        <v>0.1575218671670418</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5166,7 +5172,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.1632537523495798</v>
+        <v>0.1563512866135266</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5174,7 +5180,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.1627051982497818</v>
+        <v>0.1557538904449678</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5182,7 +5188,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.1624853518710645</v>
+        <v>0.155740045473415</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5190,7 +5196,7 @@
         <v>411</v>
       </c>
       <c r="B413">
-        <v>0.1602001397196207</v>
+        <v>0.1556735902155866</v>
       </c>
     </row>
     <row r="414" spans="1:2">
@@ -5198,7 +5204,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.1589298819773137</v>
+        <v>0.1529514850327918</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5206,7 +5212,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.1587125119067252</v>
+        <v>0.1510927555172921</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5214,7 +5220,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.1569524359950345</v>
+        <v>0.1496467336990452</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5222,7 +5228,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.1556735902155866</v>
+        <v>0.1464694832964184</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5230,7 +5236,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.1554607185447858</v>
+        <v>0.1460912558054566</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5238,7 +5244,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.1539936616889395</v>
+        <v>0.1456043959747473</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5246,7 +5252,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.1515952918801795</v>
+        <v>0.1452859471662762</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5254,7 +5260,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.1500617054777988</v>
+        <v>0.145276490999956</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5262,7 +5268,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.1496951592276041</v>
+        <v>0.1450898887023828</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5270,7 +5276,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.1496467336990452</v>
+        <v>0.1435577786103548</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5278,7 +5284,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.1475429140353286</v>
+        <v>0.1429622986617778</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5286,7 +5292,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.1461506201151326</v>
+        <v>0.1402030151985585</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5294,7 +5300,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.1460847385440598</v>
+        <v>0.1401089788177809</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5302,7 +5308,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.1441611624656447</v>
+        <v>0.1390511467695106</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5310,7 +5316,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.1425504692573032</v>
+        <v>0.1387646419857298</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5318,7 +5324,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.1422923101645497</v>
+        <v>0.1383448027571614</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5326,7 +5332,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.140897521378329</v>
+        <v>0.1377971967165033</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5334,7 +5340,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.1385483970129546</v>
+        <v>0.1363225076045647</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5342,7 +5348,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.1368475771698685</v>
+        <v>0.1357855481089978</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5350,7 +5356,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.1361315653374546</v>
+        <v>0.1344690551344814</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5358,7 +5364,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.1348671305018081</v>
+        <v>0.1339238581247237</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5366,7 +5372,7 @@
         <v>433</v>
       </c>
       <c r="B435">
-        <v>0.1330133757381327</v>
+        <v>0.1338301024635058</v>
       </c>
     </row>
     <row r="436" spans="1:2">
@@ -5374,7 +5380,7 @@
         <v>434</v>
       </c>
       <c r="B436">
-        <v>0.1319494150396661</v>
+        <v>0.1329664671708468</v>
       </c>
     </row>
     <row r="437" spans="1:2">
@@ -5382,7 +5388,7 @@
         <v>435</v>
       </c>
       <c r="B437">
-        <v>0.1308601725504352</v>
+        <v>0.1328978370529654</v>
       </c>
     </row>
     <row r="438" spans="1:2">
@@ -5390,7 +5396,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.1298523091374744</v>
+        <v>0.1324896249235061</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5398,7 +5404,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.1297774728010226</v>
+        <v>0.1322881381654528</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5406,7 +5412,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.1294203017172384</v>
+        <v>0.131125954450535</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5414,7 +5420,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.127435986204349</v>
+        <v>0.1306072401856568</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5422,7 +5428,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.1245449236836129</v>
+        <v>0.1285131250244598</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5430,7 +5436,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.1228476465268493</v>
+        <v>0.1259759180449567</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5438,7 +5444,7 @@
         <v>442</v>
       </c>
       <c r="B444">
-        <v>0.1224952495769429</v>
+        <v>0.1257580094973525</v>
       </c>
     </row>
     <row r="445" spans="1:2">
@@ -5446,7 +5452,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.1217436901795161</v>
+        <v>0.1248730815602421</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5454,7 +5460,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.1196496191296357</v>
+        <v>0.1243806726366852</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5462,7 +5468,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.1187250236792015</v>
+        <v>0.123359242076956</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5470,7 +5476,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.1168648002152788</v>
+        <v>0.1209620140659808</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5478,7 +5484,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.1159338938431029</v>
+        <v>0.1206002690893484</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5486,7 +5492,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.1122288376819376</v>
+        <v>0.1205572477173611</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5494,7 +5500,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.1115192744081941</v>
+        <v>0.1166865213206287</v>
       </c>
     </row>
     <row r="452" spans="1:2">
@@ -5502,7 +5508,7 @@
         <v>450</v>
       </c>
       <c r="B452">
-        <v>0.1113177949165638</v>
+        <v>0.1131139477294187</v>
       </c>
     </row>
     <row r="453" spans="1:2">
@@ -5510,7 +5516,7 @@
         <v>451</v>
       </c>
       <c r="B453">
-        <v>0.1096456600270863</v>
+        <v>0.1124315044267938</v>
       </c>
     </row>
     <row r="454" spans="1:2">
@@ -5518,7 +5524,7 @@
         <v>452</v>
       </c>
       <c r="B454">
-        <v>0.1094203392274153</v>
+        <v>0.1119218472305792</v>
       </c>
     </row>
     <row r="455" spans="1:2">
@@ -5526,7 +5532,7 @@
         <v>453</v>
       </c>
       <c r="B455">
-        <v>0.1092669645297211</v>
+        <v>0.111113913443222</v>
       </c>
     </row>
     <row r="456" spans="1:2">
@@ -5534,7 +5540,7 @@
         <v>454</v>
       </c>
       <c r="B456">
-        <v>0.1058595396083193</v>
+        <v>0.1096456600270863</v>
       </c>
     </row>
     <row r="457" spans="1:2">
@@ -5542,7 +5548,7 @@
         <v>455</v>
       </c>
       <c r="B457">
-        <v>0.1055632185248487</v>
+        <v>0.1092830493322223</v>
       </c>
     </row>
     <row r="458" spans="1:2">
@@ -5550,7 +5556,7 @@
         <v>456</v>
       </c>
       <c r="B458">
-        <v>0.1033194246289306</v>
+        <v>0.1092669645297211</v>
       </c>
     </row>
     <row r="459" spans="1:2">
@@ -5558,7 +5564,7 @@
         <v>457</v>
       </c>
       <c r="B459">
-        <v>0.1013418358053879</v>
+        <v>0.1081328594974444</v>
       </c>
     </row>
     <row r="460" spans="1:2">
@@ -5566,7 +5572,7 @@
         <v>458</v>
       </c>
       <c r="B460">
-        <v>0.09986344035627703</v>
+        <v>0.1074626352878081</v>
       </c>
     </row>
     <row r="461" spans="1:2">
@@ -5574,7 +5580,7 @@
         <v>459</v>
       </c>
       <c r="B461">
-        <v>0.09908311856284069</v>
+        <v>0.1029937563108607</v>
       </c>
     </row>
     <row r="462" spans="1:2">
@@ -5582,7 +5588,7 @@
         <v>460</v>
       </c>
       <c r="B462">
-        <v>0.09769862722190825</v>
+        <v>0.1025618465969054</v>
       </c>
     </row>
     <row r="463" spans="1:2">
@@ -5590,7 +5596,7 @@
         <v>461</v>
       </c>
       <c r="B463">
-        <v>0.09659269414852156</v>
+        <v>0.1022563636466922</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -5598,7 +5604,7 @@
         <v>462</v>
       </c>
       <c r="B464">
-        <v>0.09649999812325105</v>
+        <v>0.1020571418083684</v>
       </c>
     </row>
     <row r="465" spans="1:2">
@@ -5606,7 +5612,7 @@
         <v>463</v>
       </c>
       <c r="B465">
-        <v>0.09630610419639773</v>
+        <v>0.09769862722190825</v>
       </c>
     </row>
     <row r="466" spans="1:2">
@@ -5614,7 +5620,7 @@
         <v>464</v>
       </c>
       <c r="B466">
-        <v>0.09519915931063627</v>
+        <v>0.09694628422080154</v>
       </c>
     </row>
     <row r="467" spans="1:2">
@@ -5622,7 +5628,7 @@
         <v>465</v>
       </c>
       <c r="B467">
-        <v>0.09354383865103144</v>
+        <v>0.09649999812325105</v>
       </c>
     </row>
     <row r="468" spans="1:2">
@@ -5630,7 +5636,7 @@
         <v>466</v>
       </c>
       <c r="B468">
-        <v>0.09275709500223339</v>
+        <v>0.09566740016297737</v>
       </c>
     </row>
     <row r="469" spans="1:2">
@@ -5638,7 +5644,7 @@
         <v>467</v>
       </c>
       <c r="B469">
-        <v>0.09269871914413708</v>
+        <v>0.09511828653006416</v>
       </c>
     </row>
     <row r="470" spans="1:2">
@@ -5646,7 +5652,7 @@
         <v>468</v>
       </c>
       <c r="B470">
-        <v>0.08967005472129141</v>
+        <v>0.09242939737736466</v>
       </c>
     </row>
     <row r="471" spans="1:2">
@@ -5654,7 +5660,7 @@
         <v>469</v>
       </c>
       <c r="B471">
-        <v>0.08887685892665553</v>
+        <v>0.09215679015324096</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -5662,7 +5668,7 @@
         <v>470</v>
       </c>
       <c r="B472">
-        <v>0.088810806963044</v>
+        <v>0.09069473257964833</v>
       </c>
     </row>
     <row r="473" spans="1:2">
@@ -5670,7 +5676,7 @@
         <v>471</v>
       </c>
       <c r="B473">
-        <v>0.08769755511296151</v>
+        <v>0.09054011478700863</v>
       </c>
     </row>
     <row r="474" spans="1:2">
@@ -5678,7 +5684,7 @@
         <v>472</v>
       </c>
       <c r="B474">
-        <v>0.08474783042162559</v>
+        <v>0.08938755099007434</v>
       </c>
     </row>
     <row r="475" spans="1:2">
@@ -5686,7 +5692,7 @@
         <v>473</v>
       </c>
       <c r="B475">
-        <v>0.08384831277023652</v>
+        <v>0.08855047757223167</v>
       </c>
     </row>
     <row r="476" spans="1:2">
@@ -5694,7 +5700,7 @@
         <v>474</v>
       </c>
       <c r="B476">
-        <v>0.08174118749878589</v>
+        <v>0.08805797452416497</v>
       </c>
     </row>
     <row r="477" spans="1:2">
@@ -5702,7 +5708,7 @@
         <v>475</v>
       </c>
       <c r="B477">
-        <v>0.08084829501245028</v>
+        <v>0.08678348481909048</v>
       </c>
     </row>
     <row r="478" spans="1:2">
@@ -5710,7 +5716,7 @@
         <v>476</v>
       </c>
       <c r="B478">
-        <v>0.07871616250588787</v>
+        <v>0.08645053529232238</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -5718,7 +5724,7 @@
         <v>477</v>
       </c>
       <c r="B479">
-        <v>0.07794100960643657</v>
+        <v>0.08553822422826474</v>
       </c>
     </row>
     <row r="480" spans="1:2">
@@ -5726,7 +5732,7 @@
         <v>478</v>
       </c>
       <c r="B480">
-        <v>0.07780224744830422</v>
+        <v>0.08521267599130988</v>
       </c>
     </row>
     <row r="481" spans="1:2">
@@ -5734,7 +5740,7 @@
         <v>479</v>
       </c>
       <c r="B481">
-        <v>0.07718810332182469</v>
+        <v>0.08452475018988048</v>
       </c>
     </row>
     <row r="482" spans="1:2">
@@ -5742,7 +5748,7 @@
         <v>480</v>
       </c>
       <c r="B482">
-        <v>0.07340514350077854</v>
+        <v>0.08322277077964069</v>
       </c>
     </row>
     <row r="483" spans="1:2">
@@ -5750,7 +5756,7 @@
         <v>481</v>
       </c>
       <c r="B483">
-        <v>0.07331980060378496</v>
+        <v>0.0830761684963548</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -5758,7 +5764,7 @@
         <v>482</v>
       </c>
       <c r="B484">
-        <v>0.07123835658140631</v>
+        <v>0.08254621863995903</v>
       </c>
     </row>
     <row r="485" spans="1:2">
@@ -5766,7 +5772,7 @@
         <v>483</v>
       </c>
       <c r="B485">
-        <v>0.07028850615593929</v>
+        <v>0.07873366610379406</v>
       </c>
     </row>
     <row r="486" spans="1:2">
@@ -5774,7 +5780,7 @@
         <v>484</v>
       </c>
       <c r="B486">
-        <v>0.06760116504419211</v>
+        <v>0.07403530251891088</v>
       </c>
     </row>
     <row r="487" spans="1:2">
@@ -5782,7 +5788,7 @@
         <v>485</v>
       </c>
       <c r="B487">
-        <v>0.06719316518479412</v>
+        <v>0.07366087974648927</v>
       </c>
     </row>
     <row r="488" spans="1:2">
@@ -5790,7 +5796,7 @@
         <v>486</v>
       </c>
       <c r="B488">
-        <v>0.06630164358208401</v>
+        <v>0.07269898736390257</v>
       </c>
     </row>
     <row r="489" spans="1:2">
@@ -5798,7 +5804,7 @@
         <v>487</v>
       </c>
       <c r="B489">
-        <v>0.06616813532797039</v>
+        <v>0.07123835658140631</v>
       </c>
     </row>
     <row r="490" spans="1:2">
@@ -5806,7 +5812,7 @@
         <v>488</v>
       </c>
       <c r="B490">
-        <v>0.06086887903706417</v>
+        <v>0.06970354016675073</v>
       </c>
     </row>
     <row r="491" spans="1:2">
@@ -5814,7 +5820,7 @@
         <v>489</v>
       </c>
       <c r="B491">
-        <v>0.06028752845661955</v>
+        <v>0.06852005673296135</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -5822,7 +5828,7 @@
         <v>490</v>
       </c>
       <c r="B492">
-        <v>0.05678001655616494</v>
+        <v>0.06789388300186561</v>
       </c>
     </row>
     <row r="493" spans="1:2">
@@ -5830,7 +5836,7 @@
         <v>491</v>
       </c>
       <c r="B493">
-        <v>0.05396683782482037</v>
+        <v>0.06100060833351773</v>
       </c>
     </row>
     <row r="494" spans="1:2">
@@ -5838,7 +5844,7 @@
         <v>492</v>
       </c>
       <c r="B494">
-        <v>0.05351510698496531</v>
+        <v>0.0543911395811818</v>
       </c>
     </row>
     <row r="495" spans="1:2">
@@ -5846,7 +5852,7 @@
         <v>493</v>
       </c>
       <c r="B495">
-        <v>0.04821335254625825</v>
+        <v>0.05419983891969737</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -5854,7 +5860,7 @@
         <v>494</v>
       </c>
       <c r="B496">
-        <v>0.04668639429583266</v>
+        <v>0.05263770476737983</v>
       </c>
     </row>
     <row r="497" spans="1:2">
@@ -5862,7 +5868,7 @@
         <v>495</v>
       </c>
       <c r="B497">
-        <v>0.04524399078589925</v>
+        <v>0.03598483814890474</v>
       </c>
     </row>
     <row r="498" spans="1:2">
@@ -5870,7 +5876,7 @@
         <v>496</v>
       </c>
       <c r="B498">
-        <v>0.04361120483181691</v>
+        <v>0.03526049629297345</v>
       </c>
     </row>
     <row r="499" spans="1:2">
@@ -5878,7 +5884,7 @@
         <v>497</v>
       </c>
       <c r="B499">
-        <v>0.04305550288658244</v>
+        <v>0.0291866648157626</v>
       </c>
     </row>
     <row r="500" spans="1:2">
@@ -5886,7 +5892,7 @@
         <v>498</v>
       </c>
       <c r="B500">
-        <v>0.04180967449237327</v>
+        <v>0.02507130232252575</v>
       </c>
     </row>
     <row r="501" spans="1:2">
@@ -5894,7 +5900,7 @@
         <v>499</v>
       </c>
       <c r="B501">
-        <v>0.02558711601590913</v>
+        <v>0.02333099190278198</v>
       </c>
     </row>
     <row r="502" spans="1:2">
@@ -5902,7 +5908,7 @@
         <v>500</v>
       </c>
       <c r="B502">
-        <v>0.02243230580456412</v>
+        <v>0.02285433805216197</v>
       </c>
     </row>
     <row r="503" spans="1:2">
@@ -5910,7 +5916,7 @@
         <v>501</v>
       </c>
       <c r="B503">
-        <v>0.01495357880940107</v>
+        <v>0.01774244411814085</v>
       </c>
     </row>
     <row r="504" spans="1:2">
@@ -5918,7 +5924,7 @@
         <v>502</v>
       </c>
       <c r="B504">
-        <v>0.01266937225084308</v>
+        <v>0.01721244969518176</v>
       </c>
     </row>
     <row r="505" spans="1:2">
@@ -5926,7 +5932,7 @@
         <v>503</v>
       </c>
       <c r="B505">
-        <v>0.008525154779101429</v>
+        <v>0.01016153665476871</v>
       </c>
     </row>
     <row r="506" spans="1:2">
@@ -5934,7 +5940,23 @@
         <v>504</v>
       </c>
       <c r="B506">
-        <v>0.007393265849692909</v>
+        <v>0.009491069194768276</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2">
+      <c r="A507" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B507">
+        <v>0.005552395353551676</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2">
+      <c r="A508" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B508">
+        <v>0.00554492047406252</v>
       </c>
     </row>
   </sheetData>
